--- a/reportes/I10.10.2.67.xlsx
+++ b/reportes/I10.10.2.67.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,48 +40,57 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>GARCÍA</t>
-  </si>
-  <si>
-    <t>HERNÁNDEZ</t>
-  </si>
-  <si>
-    <t>FELIPA</t>
+    <t>RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>BYRON</t>
+  </si>
+  <si>
+    <t>OTONIEL</t>
+  </si>
+  <si>
+    <t>17-560/201761946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección actual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle o lugar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>LOTE 664 A  MANZ. 28</t>
+  </si>
+  <si>
+    <t>COLONIA MAYA Z. 18</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>17-523/201761749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección actual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle o lugar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departamento </t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>SECTOR 3 LOTE 437 NUEVA JERUZALEN Z, 18</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dirección habitual </t>
   </si>
   <si>
     <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
+    <t>IDEM.</t>
+  </si>
+  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -94,13 +103,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1958-05-11</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>1971-01-24</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>CHIQUIMULA</t>
+  </si>
+  <si>
+    <t>Masculino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -118,13 +130,13 @@
     <t>Casado</t>
   </si>
   <si>
-    <t>AMA DE CASA</t>
-  </si>
-  <si>
-    <t>GUATEM,LTECA</t>
-  </si>
-  <si>
-    <t>1758710000101</t>
+    <t>PANIFICADOR</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>DPI 1619994922001</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -133,7 +145,7 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t>PEDRO LOPEZ</t>
+    <t>RITA AZUCENA MALGAREJO</t>
   </si>
   <si>
     <t>Nombre del Padre:</t>
@@ -142,10 +154,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>EMILIO GARCIA</t>
-  </si>
-  <si>
-    <t>MARIA MARGARITA HERNANDEZ</t>
+    <t>JOSE  RODRIGUEZ SINCUIR</t>
+  </si>
+  <si>
+    <t>MARTA JULIA MARTÍNEZ</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -157,10 +169,13 @@
     <t>Dirección</t>
   </si>
   <si>
+    <t>RITA  MELGAREJO</t>
+  </si>
+  <si>
     <t>ESPOSO</t>
   </si>
   <si>
-    <t>44202380</t>
+    <t>54780076</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -190,10 +205,10 @@
     <t>23/10/2017</t>
   </si>
   <si>
-    <t>8:47:20</t>
-  </si>
-  <si>
-    <t>CL. 31</t>
+    <t>12:19:46</t>
+  </si>
+  <si>
+    <t>CLINICA  DENTAL</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1133,25 +1148,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1168,91 +1183,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1260,20 +1275,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1281,14 +1296,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1298,14 +1313,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1315,14 +1330,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1332,14 +1347,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1349,18 +1364,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1370,35 +1385,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1408,14 +1423,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1425,39 +1440,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1469,7 +1484,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1510,7 +1525,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1521,7 +1536,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1553,7 +1568,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1564,7 +1579,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1609,7 +1624,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1620,7 +1635,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1653,46 +1668,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1712,7 +1727,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1721,13 +1736,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1742,7 +1757,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.67.xlsx
+++ b/reportes/I10.10.2.67.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>RODRÍGUEZ</t>
-  </si>
-  <si>
-    <t>MARTÍNEZ</t>
-  </si>
-  <si>
-    <t>BYRON</t>
-  </si>
-  <si>
-    <t>OTONIEL</t>
-  </si>
-  <si>
-    <t>17-560/201761946</t>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>HANSEL MARIO</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>2017-26249/201762628</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,27 +70,27 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>LOTE 664 A  MANZ. 28</t>
-  </si>
-  <si>
-    <t>COLONIA MAYA Z. 18</t>
+    <t>BARRIO SAN JUAN</t>
+  </si>
+  <si>
+    <t>SAN AGUSTIN ACASAGUASTLAN EL PROGRESO</t>
   </si>
   <si>
     <t>GUATEMALA</t>
   </si>
   <si>
+    <t>31351928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección habitual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Dirección habitual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfono </t>
-  </si>
-  <si>
-    <t>IDEM.</t>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -103,13 +103,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1971-01-24</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>CHIQUIMULA</t>
+    <t>1998-04-09</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>JALAPA</t>
   </si>
   <si>
     <t>Masculino</t>
@@ -127,16 +127,13 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>PANIFICADOR</t>
-  </si>
-  <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>DPI 1619994922001</t>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -145,19 +142,16 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t>RITA AZUCENA MALGAREJO</t>
-  </si>
-  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>JOSE  RODRIGUEZ SINCUIR</t>
-  </si>
-  <si>
-    <t>MARTA JULIA MARTÍNEZ</t>
+    <t>LUIS MENDEZ</t>
+  </si>
+  <si>
+    <t>GLENIA POP</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -169,13 +163,7 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>RITA  MELGAREJO</t>
-  </si>
-  <si>
-    <t>ESPOSO</t>
-  </si>
-  <si>
-    <t>54780076</t>
+    <t>MADRE</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -202,13 +190,13 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>23/10/2017</t>
-  </si>
-  <si>
-    <t>12:19:46</t>
-  </si>
-  <si>
-    <t>CLINICA  DENTAL</t>
+    <t>24/10/2017</t>
+  </si>
+  <si>
+    <t>14:51:18</t>
+  </si>
+  <si>
+    <t>HEMATO-ONCO</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1194,19 +1182,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -1288,7 +1276,7 @@
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1296,14 +1284,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1313,14 +1301,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1330,14 +1318,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1347,14 +1335,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1364,18 +1352,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1385,14 +1373,14 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
@@ -1400,20 +1388,20 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1423,14 +1411,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1440,39 +1428,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1484,7 +1472,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1525,7 +1513,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1536,7 +1524,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1568,7 +1556,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1579,7 +1567,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1624,7 +1612,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1635,7 +1623,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1668,46 +1656,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1727,7 +1715,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1736,13 +1724,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1757,7 +1745,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.67.xlsx
+++ b/reportes/I10.10.2.67.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>POP</t>
-  </si>
-  <si>
-    <t>HANSEL MARIO</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>2017-26249/201762628</t>
+    <t xml:space="preserve">OLIVEROS </t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>ESPERANZA</t>
+  </si>
+  <si>
+    <t>REYNA</t>
+  </si>
+  <si>
+    <t>/201769573</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,16 +70,19 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>BARRIO SAN JUAN</t>
-  </si>
-  <si>
-    <t>SAN AGUSTIN ACASAGUASTLAN EL PROGRESO</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>31351928</t>
+    <t xml:space="preserve">LOTE 22 MANZ 84 </t>
+  </si>
+  <si>
+    <t>CANTON EL PORVENIR</t>
+  </si>
+  <si>
+    <t>CANALITOS ZONA 24</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>4956-7620</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -88,9 +91,6 @@
     <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -103,16 +103,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1998-04-09</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>JALAPA</t>
-  </si>
-  <si>
-    <t>Masculino</t>
+    <t>1976-02-15</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>EL TUMBADOR SAN MARCOS</t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -130,10 +130,13 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>ESTUDIANTE</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
+    <t>AMA DE CASA</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>1803097571213</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,10 +151,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>LUIS MENDEZ</t>
-  </si>
-  <si>
-    <t>GLENIA POP</t>
+    <t xml:space="preserve">ISAIAS CARASILDOOLIVEROS </t>
+  </si>
+  <si>
+    <t>REYNA CRISTINA CHAVEZ</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -166,6 +169,12 @@
     <t>MADRE</t>
   </si>
   <si>
+    <t xml:space="preserve">IDEM </t>
+  </si>
+  <si>
+    <t>5006-0709</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
   </si>
   <si>
@@ -190,13 +199,13 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>24/10/2017</t>
-  </si>
-  <si>
-    <t>14:51:18</t>
-  </si>
-  <si>
-    <t>HEMATO-ONCO</t>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>14:8:22</t>
+  </si>
+  <si>
+    <t>CLINICA 6-7</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1144,17 +1153,17 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1171,30 +1180,30 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -1276,7 +1285,7 @@
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1284,14 +1293,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1301,14 +1310,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1318,14 +1327,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1335,14 +1344,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1352,18 +1361,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1373,35 +1382,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1411,14 +1420,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1428,39 +1437,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1472,7 +1481,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1513,7 +1522,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1524,7 +1533,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1556,7 +1565,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1567,7 +1576,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1612,7 +1621,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1623,7 +1632,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1656,46 +1665,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1715,7 +1724,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1724,13 +1733,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1745,7 +1754,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.67.xlsx
+++ b/reportes/I10.10.2.67.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t xml:space="preserve">OLIVEROS </t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>ESPERANZA</t>
-  </si>
-  <si>
-    <t>REYNA</t>
-  </si>
-  <si>
-    <t>/201769573</t>
+    <t xml:space="preserve">CASTELLANOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÓPEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONIO </t>
+  </si>
+  <si>
+    <t>2017-0034279/201773430</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,27 +70,30 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t xml:space="preserve">LOTE 22 MANZ 84 </t>
-  </si>
-  <si>
-    <t>CANTON EL PORVENIR</t>
-  </si>
-  <si>
-    <t>CANALITOS ZONA 24</t>
+    <t>4 AV. A 29-39 RESD. VOULEVART SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUDAD SAN CRISTOBAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIXCO </t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>2443-6964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección habitual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>4956-7620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección habitual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfono </t>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -103,16 +106,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1976-02-15</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>EL TUMBADOR SAN MARCOS</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>1938-08-11</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>BELICE</t>
+  </si>
+  <si>
+    <t>Masculino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -130,13 +133,13 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>AMA DE CASA</t>
+    <t>NO</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>1803097571213</t>
+    <t>2337250631703</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -145,16 +148,19 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
+    <t xml:space="preserve">ANA MARIA SANTA CRUZ </t>
+  </si>
+  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t xml:space="preserve">ISAIAS CARASILDOOLIVEROS </t>
-  </si>
-  <si>
-    <t>REYNA CRISTINA CHAVEZ</t>
+    <t xml:space="preserve">FRANCISCO PEDRO CASTELLANOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUFINA LOPEZ </t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -166,13 +172,10 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>MADRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDEM </t>
-  </si>
-  <si>
-    <t>5006-0709</t>
+    <t xml:space="preserve">ALVARO CASTELLANOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIJO </t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -199,13 +202,13 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>14:8:22</t>
-  </si>
-  <si>
-    <t>CLINICA 6-7</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>13:13:17</t>
+  </si>
+  <si>
+    <t>CL. 27</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1186,85 +1189,85 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1272,20 +1275,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1293,14 +1296,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1310,14 +1313,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1327,14 +1330,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1344,14 +1347,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1361,18 +1364,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1382,35 +1385,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1420,14 +1423,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1437,39 +1440,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1533,7 +1536,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1565,7 +1568,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1576,7 +1579,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1621,7 +1624,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1632,7 +1635,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1665,46 +1668,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1724,7 +1727,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1733,13 +1736,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1754,7 +1757,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.67.xlsx
+++ b/reportes/I10.10.2.67.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t xml:space="preserve">CASTELLANOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÓPEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCISCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTONIO </t>
-  </si>
-  <si>
-    <t>2017-0034279/201773430</t>
+    <t>GARCÍA</t>
+  </si>
+  <si>
+    <t>RAMÍREZ</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>HONORIA</t>
+  </si>
+  <si>
+    <t>/201774506</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,30 +70,24 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>4 AV. A 29-39 RESD. VOULEVART SUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIUDAD SAN CRISTOBAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIXCO </t>
+    <t>ZACAPA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>RIO HONDO</t>
   </si>
   <si>
     <t>GUATEMALA</t>
   </si>
   <si>
-    <t>2443-6964</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dirección habitual </t>
   </si>
   <si>
     <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -106,16 +100,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1938-08-11</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>BELICE</t>
-  </si>
-  <si>
-    <t>Masculino</t>
+    <t>1963-04-18</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>RIO HONDO ZACAPA</t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -133,13 +127,13 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>AMA DE CASA</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>2337250631703</t>
+    <t>19540277409903</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,19 +142,16 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t xml:space="preserve">ANA MARIA SANTA CRUZ </t>
-  </si>
-  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCISCO PEDRO CASTELLANOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUFINA LOPEZ </t>
+    <t>TEODORO GARCÍA</t>
+  </si>
+  <si>
+    <t>VALVINA RAMIREZ</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -172,10 +163,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">ALVARO CASTELLANOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIJO </t>
+    <t>LUISA FERNANDA MORALES GARCÍA</t>
+  </si>
+  <si>
+    <t>HIJA</t>
+  </si>
+  <si>
+    <t>50555449</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -202,13 +196,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>13:13:17</t>
-  </si>
-  <si>
-    <t>CL. 27</t>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>9:9:43</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1160,13 +1151,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1183,91 +1174,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1275,20 +1266,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1296,14 +1287,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1313,14 +1304,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1330,14 +1321,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1347,14 +1338,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1364,18 +1355,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1385,35 +1376,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1423,14 +1414,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1440,39 +1431,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1484,7 +1475,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1525,7 +1516,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1536,7 +1527,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1568,7 +1559,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1579,7 +1570,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1624,7 +1615,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1635,7 +1626,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1668,46 +1659,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1727,7 +1718,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1736,13 +1727,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1757,7 +1748,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
